--- a/instance/zyjk/zentao/zentao_daily.xlsx
+++ b/instance/zyjk/zentao/zentao_daily.xlsx
@@ -7,8 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-02-02_2023-02-08" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-02-01_2023-02-08" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-02-08_2023-02-09" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-02-09_2023-02-09" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-02-01_2023-02-09" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-02-02_2023-02-08" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-02-01_2023-02-08" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,6 +417,2420 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>项目</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>模块</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>工时</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>完成日期</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>评审意见</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>普陀区中心医院高血压达标中心智能管理平台建设项目</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>查看高血压需求文档+1.11新需求用例编写</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.查看高血压需求文档
+	2.1.11新需求用例编写
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:52:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>智赢CRM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ERP3.0手机端测试用例编写</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ERP3.0手机端5.1,5.2需求用例编写完成</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:53:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAAS平台</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>saasv1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>saasV1.11，5.2.7短信发送测试用例编写</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:41:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>松江版本随访任务测试</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.随访任务生成
+	2.测试数据
+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:53:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>招远区域医疗信息平台项目</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>老年人体检预生产环境测试</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.测试v1.2版本需求
+	2.打印模板测试
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:54:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>招远区域医疗信息平台项目</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>查看数据管理、打印模板设计模块</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>&lt;div&gt;
+	&lt;span style="font-size:12px;"&gt;查看数据管理、打印模板设计模块
+&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:56:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>V1.2测试用例编写</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>&lt;span style="font-size:12px;"&gt;V1.2&lt;span style="font-size:12px;"&gt;首页修改，增加基础疾病统计；修改布局，组合项目标签切换&lt;span style="font-size:12px;"&gt;&lt;span style="font-size:12px;"&gt;测试用例编写</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:57:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>测试每日跟进</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，每日例会
+	2，老年人体检预发布问题跟进
+	3，高血压新增需求了解
+	4，整理python第三方库之异步文件读取
+	5，检查重点人群进度表
+	6，检查PIM妇幼进度表及问题跟进
+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2023-02-08 18:34:55</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>项目</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>模块</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>工时</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>完成日期</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>评审意见</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>项目</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>模块</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>工时</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>完成日期</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>评审意见</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>招远区域医疗信息平台项目</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CRM3.0需求熟悉</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>&lt;div style="color:#000000;"&gt;
+	1.家床测试，验证BUG，辅助Fainy调试
+&lt;/div&gt;
+&lt;div style="color:#000000;"&gt;
+	2.CRM3.0需求熟悉
+&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2023-02-01 18:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>参与培训会</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>&lt;div style="color:#000000;"&gt;
+	1.参与培训会
+&lt;/div&gt;
+&lt;div style="color:#000000;"&gt;
+	&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023-02-01 18:00:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>智赢CRM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ERP3.0需求熟悉</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>&lt;span style="color:#000000;"&gt;今日熟悉了患者潜力，病历管理，协防管理，会议管理，审批管理，标签管理部分内容</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023-02-02 17:58:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>智赢CRM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>crm3.0需求熟悉</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>&lt;p style="color:#000000;background-color:#FFFFFF;"&gt;
+	1.CRM3.0&lt;span style="color:#000000;"&gt;熟悉首页，医院管理，客户管理，拜访管理，协防管理，会议管理 
+&lt;p style="color:#000000;background-color:#FFFFFF;"&gt;
+	&lt;span style="color:#000000;"&gt;&lt;span style="color:#000000;"&gt;2.确认重点人群健康管理系统现场测试的重点 
+&lt;div style="color:#000000;background-color:#FFFFFF;"&gt;
+&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2023-02-03 17:54:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>智赢CRM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>查看ERP3.0手机端需求文档</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.熟悉需求
+	2.编写用例
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2023-02-07 09:29:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>杨行社区数据测试</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>杨行社区数据测试</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2023-02-07 09:37:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>智赢CRM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ERP3.0手机端测试用例编写</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	&lt;span style="color:#000000;"&gt;ERP3.0手机端5.1,5.2测试用例编写
+	&lt;span style="color:#000000;"&gt;&lt;span style="color:#000000;"&gt;参与高血压项目需求评审会
+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2023-02-07 18:00:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>家床-宝山7家家床</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>复现BUG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.家床一体机导入新包
+	2.复现BUG
+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2023-02-07 18:01:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统数据核对测试用例编写</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>&lt;span style="color:#000000;"&gt;重点人群健康管理系统数据核对测试用例编写</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2023-02-07 18:02:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>普陀区中心医院高血压达标中心智能管理平台建设项目</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>查看高血压需求文档+1.11新需求用例编写</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.查看高血压需求文档
+	2.1.11新需求用例编写
+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:52:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>智赢CRM</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ERP3.0手机端测试用例编写</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ERP3.0手机端5.1,5.2需求用例编写完成</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:53:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>招远区域医疗信息平台项目</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>区域平台</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>熟悉就诊病历需求</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2023-02-01 17:54:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>招远区域医疗信息平台项目</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>区域平台</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.熟悉V1.3需求
+	2.参加重点人群项目研讨会
+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2023-02-02 17:57:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>招远区域医疗信息平台项目</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>区域平台</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>熟悉人群健康项目需求文档和视频</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2023-02-03 18:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>招远区域医疗信息平台项目</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>重点人群项目</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>远程测试浦东上钢社区</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2023-02-06 18:13:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>重点人群项目远程测试</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.浦东新区上钢社区测试己完成
+	2.静安区彭浦社区和芷江西路社区测试己完成，大宁社区进度80%
+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2023-02-07 17:59:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>汪刚</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SAAS平台</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>saasv1.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>saasV1.11，5.2.7短信发送测试用例编写</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:41:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>v1.1版本测试</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，新增个人基础信息
+	2.导出表：3.1.5节，转阴人群表
+	3.社区配置：页面内容参照UI图
+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2023-02-01 17:56:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>智赢CRM</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>协助新同事熟悉2,0业务逻辑</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.培训新增会议、拜访、协防、客户新增修改等业务逻辑
+	</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2023-02-02 17:54:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>协助新同事熟悉系统逻辑</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.协助新同事熟悉系统逻辑
+	2.环境任务熟悉
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2023-02-02 17:56:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>招远区域医疗信息平台项目</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>老年人体检1.2版本测试</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	8.1体检记录默认值
+	8.4体检登记中增加血压信息
+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2023-02-03 17:49:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>家庭医生周报定时任务测试，指标验证</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>家庭医生周报定时任务测试，指标验证</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2023-02-03 17:50:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>松江方松社区数据测试，对比</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.测试重点人群总数与状态数据
+	2.问题定位
+	</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2023-02-06 18:02:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>招远区域医疗信息平台项目</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>老年人体检1.2版本测试</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.总检管理切换时界面时间检索刷新问题
+	2.总检管理获取已问诊数据
+	</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2023-02-06 18:04:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>招远区域医疗信息平台项目</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>老年人抑郁表、简易智力状态检查量表、打印功能测试</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.老年人抑郁表、简易智力状态检查量表、测试、提交bug
+	2、打印功能测试
+</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2023-02-07 17:50:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>松江版本随访任务测试</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.随访任务生成
+	2.测试数据
+</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:53:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>招远区域医疗信息平台项目</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>老年人体检预生产环境测试</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.测试v1.2版本需求
+	2.打印模板测试
+</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:54:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>入职第一天</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>&lt;div&gt;
+	1.办理入职手续
+&lt;/div&gt;
+&lt;div&gt;
+	2.熟悉测试规范、安装常用工具
+&lt;/div&gt;
+&lt;div&gt;
+	3.熟悉公司项目、人员，参与测试部门培训
+&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2023-02-01 18:12:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>智赢CRM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CRM平台2.0，3.0需求熟悉</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>&lt;div&gt;
+	1.熟悉盛蕴CRM平台PC端3.0
+&lt;/div&gt;
+&lt;div&gt;
+	2.熟悉盛蕴CRM平台PC端2.0、盛蕴CRM小程序
+&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2023-02-02 18:02:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>系统熟悉</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>&lt;div&gt;
+	今日主要熟悉现场需要核对的页面、操作步骤、注意事项等
+&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2023-02-03 18:03:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>招远区域医疗信息平台项目</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>老年人体检系统熟悉</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>&lt;div&gt;
+	今日主要熟悉用户中心、体检管理、基础数据维护模块
+&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2023-02-03 18:05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>界面数据验证，系统熟悉</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>&lt;div&gt;
+	1.重点人群健康管理系统界面数据验证
+&lt;/div&gt;
+&lt;div&gt;
+	2.重点人群健康管理系统熟悉
+&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2023-02-06 18:11:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>V1.2需求评审、测试用例编写</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	&lt;div style="margin-left:0px;"&gt;
+		1、V1.2需求评审、测试用例编写（随访任务完成数、AI语音随访导出）
+	&lt;/div&gt;
+		2、数据验证用例编写
+		3、&lt;span style="color:#000000;"&gt;数据验证问题跟进
+</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2023-02-07 18:15:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>招远区域医疗信息平台项目</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>查看数据管理、打印模板设计模块</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>&lt;div&gt;
+	&lt;span style="font-size:12px;"&gt;查看数据管理、打印模板设计模块
+&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:56:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>重点人群健康管理系统</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>V1.2测试用例编写</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>&lt;span style="font-size:12px;"&gt;V1.2&lt;span style="font-size:12px;"&gt;首页修改，增加基础疾病统计；修改布局，组合项目标签切换&lt;span style="font-size:12px;"&gt;&lt;span style="font-size:12px;"&gt;测试用例编写</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2023-02-08 17:57:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>郭浩杰</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>pim项目提测功能测试，妇幼项目复盘会</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.pim提测功能进行测试
+	2.对出现的bug进行复测
+	3.参加妇幼保健院的复盘会
+	4.编写妇幼保健院的会议纪要
+</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2023-02-01 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>郭浩杰</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>二月1周-郭浩杰（药库药房、测试）</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2023-02-03 17:23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>郭浩杰</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>二月1周-郭浩杰（药库药房、测试）</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2023-02-03 17:23:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>测试每日跟进</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，每日例会
+	2，新员工培训
+	3，妇幼复盘会
+</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2023-02-01 18:57:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>测试每日跟进</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，每日例会
+	2，跟进erp3任务分配
+	3，重点人群项目例会及外勤任务的分配
+	4，妇幼复盘会纪要整理与审核
+	5，PIM妇幼回归内容的检查
+</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2023-02-02 18:17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>测试每日跟进</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，每日例会
+	2，学习信创相关内容
+	3，跟进老年人体检
+	4，查看pim进度表及周报
+	5，跟进重点人群项目
+	</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2023-02-03 18:09:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>测试每日跟进</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，每日例会
+	2，跟进重点人群，松江，普陀，浦东
+	3，检查老年人体检
+</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2023-02-06 18:13:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>测试每日跟进</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，每日例会，汇报工作进度
+	2，老年人体检测试跟进
+	3，重点人群测试跟进，整理进度表及测试用例
+	4，高血压评审
+	5，重点人群新需求评审
+</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2023-02-07 18:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>测试每日跟进</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，每日例会
+	2，老年人体检预发布问题跟进
+	3，高血压新增需求了解
+	4，整理python第三方库之异步文件读取
+	5，检查重点人群进度表
+	6，检查PIM妇幼进度表及问题跟进
+</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2023-02-08 18:34:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>妇幼项目-现场测试+问题处理+妇幼复盘会议</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1现场收费室问题处理
+	2现场测试-门诊收费-生育报销流程测试+逆流程测试
+	3妇幼项目复盘会议
+	</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2023-02-01 18:22:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>妇幼项目-现场问题处理—+测试+编写回归测试功能点</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1现场问题处理
+	2护士单据样式修改
+	3版本升级
+	4门诊收费室问题处理，升级后无法正常读卡，已处理
+	5his项目测试点总结问题分析
+</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2023-02-02 17:35:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>pim-妇幼项目-现场问题处理+测试+回归测试功能清单</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1门诊收费室-报销退费+新功能培训+门诊收费问题处理
+	2妇幼项目-整体回归功能点整理
+	3回归测试计划
+	4护士-单据样式调整
+	5患者读卡-功能回归测试（医保卡，身份证，电子凭证），收费结算
+</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2023-02-03 17:28:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>pim-妇幼项目-回归测试his系统功能</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	回归测试
+	1门诊收费处理
+	2门诊报销
+	3退费（全退，部分退，统筹后部分退）
+	4入院、押金、无费退院+住院交款处理
+	5病人信息一览+自费出院结帐处理
+	6预约入住院+病人费用清单
+</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2023-02-06 17:33:52</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1393,7 +3810,6 @@
           <t>二月1周-郭浩杰（药库药房、测试）</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
           <t>8.0</t>
@@ -1426,7 +3842,6 @@
           <t>二月1周-郭浩杰（药库药房、测试）</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
           <t>8.0</t>
@@ -1744,7 +4159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/instance/zyjk/zentao/zentao_daily.xlsx
+++ b/instance/zyjk/zentao/zentao_daily.xlsx
@@ -7,27 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="21" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="-" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="-1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="02" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="_" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="03" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="23" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="41" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="-2" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="31" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="-3" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,364 +423,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/instance/zyjk/zentao/zentao_daily.xlsx
+++ b/instance/zyjk/zentao/zentao_daily.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="禅道日报" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,14 +413,506 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>项目</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>模块</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>工时</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>完成日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>智赢CRM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4月7日工作日志</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1、定位线上产品管理模块问题
+	2、问题确认与复现
+	3、辖区上级销售岗位问题确认与反馈
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-04-07 17:54:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4月7日工作日志</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.v2.08签约管理模块需求梳理
+	2.测试点整理
+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2024-04-07 17:55:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OA智能办公系统</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4月8号工作日志</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1，配合产品验收测试</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024-04-08 17:53:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>智赢CRM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4月8号工作日志</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1.辖区关系修正逻辑梳理
+	2.问题沟通
+	3.数据整理
+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-04-08 17:54:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>测试每日跟进</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，每日例会
+	2，区域平台例会
+	3，公卫2.0.7 需求评审会
+	</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-04-07 18:03:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>测试每日跟进</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，每日例会
+	2，区域平台例会
+	3，云his跟踪表问题跟进
+	4，公卫数据导入跟进
+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-04-08 17:59:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>预发布环境测试</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>残疾人管理测试</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024-04-08 17:56:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>查看2.0.8需求</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>查看2.0.8需求（健康体检管理，儿童档案查询界面）</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024-04-07 17:59:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>社区健康管理中心</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>全市1.9规则测试</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>全市1.9规则测试（高危规则）</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024-04-07 18:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>刘斌龙</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>预发布跑流程+验证数据</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>预发布跑流程+验证数据（冠心病，精神病）</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024-04-08 17:57:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>公卫系统-正式环境问题确认反馈，验证，数据更新后测试</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal"&gt;
+	正式环境：
+&lt;p class="MsoNormal"&gt;
+	用户反馈问题确认反馈
+&lt;p class="MsoNormal"&gt;
+	公司预发环境确认反馈问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	公司环境：
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	定位孕产妇管理-孕妇档案不显示问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	测试儿童管理-随访-不显示已登记父母身份证问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	&lt;p class="MsoNormal"&gt;
+		    2.0.7版本需求会议
+	&lt;p class="MsoNormal" style="text-indent:18pt;"&gt;
+		预发布环境：
+	&lt;p class="MsoNormal" style="text-indent:18pt;"&gt;
+		孕产妇、新生儿专项已知数据问题修复后验证测试
+	&lt;p class="MsoNormal"&gt;
+		孕妇档案不显示功能测试
+	&lt;p class="MsoNormal"&gt;
+		测试儿童管理-随访-不显示已登记父母身份证问题
+	&lt;p class="MsoNormal"&gt;
+		主业务流程测试
+	&lt;p class="MsoNormal"&gt;
+		正式版本补丁发布通知
+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2024-04-07 00:00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/instance/zyjk/zentao/zentao_daily.xlsx
+++ b/instance/zyjk/zentao/zentao_daily.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>舒阳阳</t>
+          <t>金浩</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>智赢CRM</t>
+          <t>测试日常工作</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,38 +476,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4月7日工作日志</t>
+          <t>测试每日跟进</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-	1、定位线上产品管理模块问题
-	2、问题确认与复现
-	3、辖区上级销售岗位问题确认与反馈
+	1，每日例会
+	2，公卫2.0.6跟进
+	3，公卫例会
+	4，整理云his问题
 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-04-07 17:54:33</t>
+          <t>2024-04-02 18:05:05</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>舒阳阳</t>
+          <t>金浩</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>区域公共卫生管理系统</t>
+          <t>测试日常工作</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,37 +518,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4月7日工作日志</t>
+          <t>测试每日跟进</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-	1.v2.08签约管理模块需求梳理
-	2.测试点整理
+	1，每日例会
+	2，公卫例会
+	3，区域平台例会
+	4，云his问题跟进
 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-04-07 17:55:47</t>
+          <t>2024-04-03 18:03:46</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>舒阳阳</t>
+          <t>金浩</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OA智能办公系统</t>
+          <t>测试日常工作</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,88 +560,10 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4月8号工作日志</t>
+          <t>测试每日跟进</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>1，配合产品验收测试</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2024-04-08 17:53:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>舒阳阳</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>智赢CRM</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4月8号工作日志</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-	1.辖区关系修正逻辑梳理
-	2.问题沟通
-	3.数据整理
-</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2024-04-08 17:54:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>测试日常工作</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>测试每日跟进</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	1，每日例会
@@ -647,39 +572,39 @@
 	</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2024-04-07 18:03:51</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>金浩</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>测试日常工作</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>测试每日跟进</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	1，每日例会
@@ -689,6 +614,89 @@
 </t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-04-08 17:59:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>测试每日跟进</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，每日例会
+	2，区域平台例会
+	3，公卫2.09 需求评审
+	4，公卫测试任务跟进
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-04-09 18:09:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>金浩</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>测试日常工作</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>测试每日跟进</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+	1，每日例会
+	2，社区健康静安需求评审
+	3，公卫208测试跟进
+	</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>8.0</t>
@@ -696,19 +704,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-04-08 17:59:58</t>
+          <t>2024-04-10 18:01:15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>郭斐</t>
+          <t>金浩</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>区域公共卫生管理系统</t>
+          <t>测试日常工作</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -718,12 +726,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>预发布环境测试</t>
+          <t>测试每日跟进</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>残疾人管理测试</t>
+          <t xml:space="preserve">
+	1，每日例会
+	2，区域平台例会
+	3，公卫测试跟进
+	4，社区健康测试跟进
+</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -733,19 +746,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-04-08 17:56:22</t>
+          <t>2024-04-11 18:04:31</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>刘斌龙</t>
+          <t>金浩</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>区域公共卫生管理系统</t>
+          <t>测试日常工作</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -755,34 +768,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>查看2.0.8需求</t>
+          <t>测试每日跟进</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>查看2.0.8需求（健康体检管理，儿童档案查询界面）</t>
+          <t xml:space="preserve">
+	1，每日例会
+	2，区域平台例会
+	3，公卫与云his问题跟进
+</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024-04-07 17:59:45</t>
+          <t>2024-04-12 17:56:01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>刘斌龙</t>
+          <t>金浩</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>社区健康管理中心</t>
+          <t>测试日常工作</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -792,34 +809,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>全市1.9规则测试</t>
+          <t>测试每日跟进</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>全市1.9规则测试（高危规则）</t>
+          <t xml:space="preserve">
+	1，每日例会
+	2，区域平台例会
+	3，云his跟踪表核对问题
+</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024-04-07 18:00:54</t>
+          <t>2024-04-15 18:00:16</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>刘斌龙</t>
+          <t>金浩</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>区域公共卫生管理系统</t>
+          <t>测试日常工作</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -829,12 +850,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>预发布跑流程+验证数据</t>
+          <t>测试每日跟进</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>预发布跑流程+验证数据（冠心病，精神病）</t>
+          <t xml:space="preserve">
+	1，每日例会
+	2，区域平台例会
+	3，公卫测试跟进
+	4，社区健康静安测试跟进
+</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -844,7 +870,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-04-08 17:57:15</t>
+          <t>2024-04-16 17:54:59</t>
         </is>
       </c>
     </row>
@@ -856,20 +882,213 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>区域his-卫生院问题处理</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	内科医生站问题处理-已解决
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	护士站检验医嘱问题处理-暂未解决 
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	&lt;p class="MsoNormal"&gt;
+		药库问题处理-已解决
+	&lt;p class="MsoNormal"&gt;
+		药房药库单据更新-已解决
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+&lt;p class="MsoNormal"&gt;
+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2024-04-02 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>区域公共卫生管理系统</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>公卫系统-正式环境问题确认，导入数据测试</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">公卫系统：
+   正式环境：
+   用户反馈问题确认反馈
+   公司预发环境确认反馈问题
+  公司环境：
+      公卫系统-儿童管理bug验证
+   预发布环境：
+      孕产妇管理-访视记录功能测试数据校验
+      问题反馈及讨论 </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2024-04-02 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>区域his-卫生院问题反馈及处理</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal"&gt;
+	住院医生和护士站问题处理
+&lt;p class="MsoNormal"&gt;
+	宋家村医结算问题处理
+&lt;p class="MsoNormal"&gt;
+	&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+		妇保科问题处理
+	&lt;p class="MsoNormal"&gt;
+		 财务问题处理
+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024-04-03 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>公卫系统-版本v2.0.6功能测试，问题修改确认</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal"&gt;
+	公卫系统：
+&lt;p class="MsoNormal"&gt;
+	正式环境：
+&lt;p class="MsoNormal"&gt;
+	用户反馈问题确认反馈
+&lt;p class="MsoNormal"&gt;
+	公司预发环境确认反馈问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	公司环境：
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	公卫系统-用户管理功能测试
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	问题反馈
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	&lt;p class="MsoNormal"&gt;
+		V2.0.6功能测试
+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024-04-03 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>公卫系统-正式环境问题确认反馈，验证，数据更新后测试</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p class="MsoNormal"&gt;
 	正式环境：
@@ -901,14 +1120,341 @@
 </t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>2024-04-07 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>郭浩杰</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>现场问题处理 、云his3.3.5版本测试</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.玲珑卫生院读卡器读取身份证失败、电子病历修改、护理收费项目没办法开立临时、村医开药看不到、检验打印报告问题、收费组套维护、药房库存没有待发药但是库存显示有待发问题处理
+2.大秦家卫生院收费报错后在地纬生成了数据问题处理
+4.云his3.3.4紧急bug测试，提测10个，未通过1个，其余通过。
+5.云his3.3.6版本功能测试，已提测6个，已完成1个，未完成5个</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2024-04-02 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>郭浩杰</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>云his3.3.6版本功能测试 现场负责医院问题处理</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.玲珑卫生院统计问题bug以及操作类的问题处理，详情见招远云his在线问题跟踪表
+2.【腾讯文档】招远云HIS上线问题跟踪表https://docs.qq.com/sheet/DWm5LcHN1ck5YSmxB
+3.云his3.3.4紧急版本bug测试，已提测10个，已完成10个，已发邮件</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2024-04-03 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>郭浩杰</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>云his3.3.6版本功能测试、现场负责医院问题处理</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.玲珑卫生院报表显示错误、检验报告看不到、传染病上报报错，药房库存有但是门诊开不出问题处理
+2.云his3.3.6版本功能测试，已提测6个，已完成1个，未完成4个
+3.云his3.3.4版本紧急bug测试已提测3个，已完成3个
+4.梦芝卫生院药房实际库存和系统库存对不起来问题处理
+5.云his问题记录跟踪表bug处理</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024-04-07 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>郭浩杰</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>.云his3.3.6版本功能测试， 现场负责医院问题处理</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.玲珑卫生院发药类型维护，需求问题整理
+2.梦芝卫生院新培训表签字，已提交给宋总
+1.梦芝卫生院医保结算清单上报错误，药房库存显示错误、村医报销提示不在定点医疗机构问题处理
+2.玲珑卫生院历史病历表头修改、
+3.云his紧急bug测试，已提测2个，已完成2个
+4.云his在线问题跟踪表问题处理</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2024-04-08 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>郭浩杰</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>云his3.3.6版本功能测试 Pim异地报销功能测试</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.梦芝卫生院村医报销结算问题排查，护理文书写完后医生查看不到问题处理
+2.玲珑卫生院收费结算报错、大慢病糖尿病诊断填写问题处理
+3.云his3.3.6版本功能测试
+1.云his3.3.6版本功能测试，已提测27个，已完成18个，bug遗留5个
+2.在线问题跟踪表问题处理
+3.辛庄卫生院药库出库看不到药品问题处理</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2024-04-09 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>郭浩杰</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>云his3.3.6版本功能bug测试 现场负责医院问题处理</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.云his3.3.6版本功能测试，版本bug跟进
+2.玲珑卫生院电子病历显示错误修改
+1.云his3.3.6版本功能测试，已提测31个，已完成31个，版本遗留bug5个，详情见3.3.6版本测试报告
+2.玲珑卫生院检验条码打印问题处理
+3.道头卫生院电子病历模版修改
+4.本天下午下班卡因工作原因忘记打卡，需要月底进行补卡</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024-04-10 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>郭浩杰</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>云his3.3.6版本遗留bug跟进 现场负责医院问题处理</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.玲珑卫生院处方打印皮试错误、药品开不出来、病区一览报错、手术费用计费处理
+2.妇幼pim异地医保测试，已提测4个，已完成0，现在异地读卡报错
+1.云his3.3.6版本紧急bug测试，已提测6个，已完成6个，未通过1个，详情问题见3.3.6紧急bug测试报告
+2.玲珑卫生院电子健康卡读卡报错、药房库存有负数、病案首页手术看不到、村医库存问题处理</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-04-11 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>郭浩杰</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>现场负责医院问处理 云his紧急bug测试</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1.玲珑卫生院村医报销报错
+2.道头卫生院病案首页手术显示不出来、症候开了以后没有显示问题处理
+3.Pim妇幼异地功能测试，现在读卡报错，研发正在修复
+1.云his3.3.6版本紧急bug测试，已提测6个，已完成6个
+2.梦芝卫生院医保结算单上报问题处理</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024-04-12 00:00:00</t>
         </is>
       </c>
     </row>

--- a/instance/zyjk/zentao/zentao_daily.xlsx
+++ b/instance/zyjk/zentao/zentao_daily.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>金浩</t>
+          <t>陈晓东</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>测试日常工作</t>
+          <t>区域HIS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,39 +476,45 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>测试每日跟进</t>
+          <t>区域his-卫生院问题处理</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-	1，每日例会
-	2，公卫2.0.6跟进
-	3，公卫例会
-	4，整理云his问题
+          <t xml:space="preserve">&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	内科医生站问题处理-已解决
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	护士站检验医嘱问题处理-暂未解决 
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	&lt;p class="MsoNormal"&gt;
+		药库问题处理-已解决
+	&lt;p class="MsoNormal"&gt;
+		药房药库单据更新-已解决
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+&lt;p class="MsoNormal"&gt;
 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-04-02 18:05:05</t>
+          <t>2024-04-02 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>金浩</t>
+          <t>陈晓东</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>测试日常工作</t>
+          <t>区域公共卫生管理系统</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,432 +524,10 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>测试每日跟进</t>
+          <t>公卫系统-正式环境问题确认，导入数据测试</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-	1，每日例会
-	2，公卫例会
-	3，区域平台例会
-	4，云his问题跟进
-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2024-04-03 18:03:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>测试日常工作</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>测试每日跟进</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-	1，每日例会
-	2，区域平台例会
-	3，公卫2.0.7 需求评审会
-	</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2024-04-07 18:03:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>测试日常工作</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>测试每日跟进</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-	1，每日例会
-	2，区域平台例会
-	3，云his跟踪表问题跟进
-	4，公卫数据导入跟进
-</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2024-04-08 17:59:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>测试日常工作</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>测试每日跟进</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-	1，每日例会
-	2，区域平台例会
-	3，公卫2.09 需求评审
-	4，公卫测试任务跟进
-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2024-04-09 18:09:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>测试日常工作</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>测试每日跟进</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-	1，每日例会
-	2，社区健康静安需求评审
-	3，公卫208测试跟进
-	</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2024-04-10 18:01:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>测试日常工作</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>测试每日跟进</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-	1，每日例会
-	2，区域平台例会
-	3，公卫测试跟进
-	4，社区健康测试跟进
-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2024-04-11 18:04:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>测试日常工作</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>测试每日跟进</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-	1，每日例会
-	2，区域平台例会
-	3，公卫与云his问题跟进
-</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2024-04-12 17:56:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>测试日常工作</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>测试每日跟进</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-	1，每日例会
-	2，区域平台例会
-	3，云his跟踪表核对问题
-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2024-04-15 18:00:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>金浩</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>测试日常工作</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>测试每日跟进</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-	1，每日例会
-	2，区域平台例会
-	3，公卫测试跟进
-	4，社区健康静安测试跟进
-</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2024-04-16 17:54:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>区域HIS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>区域his-卫生院问题处理</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
-	内科医生站问题处理-已解决
-&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
-	护士站检验医嘱问题处理-暂未解决 
-&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
-	&lt;p class="MsoNormal"&gt;
-		药库问题处理-已解决
-	&lt;p class="MsoNormal"&gt;
-		药房药库单据更新-已解决
-&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
-&lt;p class="MsoNormal"&gt;
-</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2024-04-02 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>区域公共卫生管理系统</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>公卫系统-正式环境问题确认，导入数据测试</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">公卫系统：
    正式环境：
@@ -956,39 +540,39 @@
       问题反馈及讨论 </t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2024-04-02 00:00:00</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>区域HIS</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>区域his-卫生院问题反馈及处理</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p class="MsoNormal"&gt;
 	住院医生和护士站问题处理
@@ -1002,39 +586,39 @@
 </t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>2024-04-03 00:00:00</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>区域公共卫生管理系统</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>公卫系统-版本v2.0.6功能测试，问题修改确认</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p class="MsoNormal"&gt;
 	公卫系统：
@@ -1056,39 +640,39 @@
 </t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>2024-04-03 00:00:00</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>陈晓东</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>区域公共卫生管理系统</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>公卫系统-正式环境问题确认反馈，验证，数据更新后测试</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;p class="MsoNormal"&gt;
 	正式环境：
@@ -1120,39 +704,996 @@
 </t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-04-07 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>his-卫生院问题处理</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+		宋家卫生院-药房管理-无法配药问题
+	&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+		宋家卫生院-门诊处方打印不显示电子签名问题
+	&lt;p class="MsoNormal"&gt;
+		妇保院：内科医生站医嘱时间问题修改
+&lt;p class="MsoNormal"&gt;
+	&lt;p class="MsoNormal"&gt;
+	&lt;p class="MsoNormal"&gt;
+		妇保院：修改复产科医嘱时间错误问题
+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-04-07 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>his-现场问题处理</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	宋家卫生院-药房管理-配发药不打印医生签名问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	妇保院：妇产科医生医嘱模版时间错误问题处理
+&lt;p class="MsoNormal"&gt;
+	大吴家卫生院医生站频次问题处理
+&lt;p class="MsoNormal"&gt;
+	&lt;p class="MsoNormal"&gt;
+		妇保院：病区配发药报错问题处理
+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024-04-08 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>公卫系统-现场数据为题确认，数据导入后测试</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal"&gt;
+	正式环境：
+&lt;p class="MsoNormal"&gt;
+	用户反馈问题确认反馈
+&lt;p class="MsoNormal"&gt;
+	公司预发环境确认反馈问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	预发布环境：
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	测试儿童管理更新数据
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	测试孕产妇管理更新数据
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	脑卒中数据导入后测试
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	&lt;p class="MsoNormal" style="text-indent:18pt;"&gt;
+		预发布环境：
+	&lt;p class="MsoNormal"&gt;
+		脑卒中数据导入后测试
+	&lt;p class="MsoNormal"&gt;
+		流程测试
+	&lt;p class="MsoNormal"&gt;
+		签约功能问题确认
+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024-04-08 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>公卫v2.0.8版本测试，问题反馈，正式环境问题确认</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal"&gt;
+	公卫系统：
+&lt;p class="MsoNormal"&gt;
+	正式环境：
+&lt;p class="MsoNormal"&gt;
+	用户反馈问题确认反馈
+&lt;p class="MsoNormal"&gt;
+	公司预发环境确认反馈问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	测试环境：
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	档案迁出迁入功能测试
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	菜单默认展开功能测试
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	问题反馈验证
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	&lt;p class="MsoNormal"&gt;
+		公卫系统：
+	&lt;p class="MsoNormal"&gt;
+		需求评审
+	&lt;p class="MsoNormal" style="text-indent:27pt;"&gt;
+		测试环境：
+	&lt;p class="MsoNormal"&gt;
+		孕产妇管理调整功能测试
+	&lt;p class="MsoNormal"&gt;
+		问题反馈
+	&lt;p class="MsoNormal"&gt;
+		正式环境：
+	&lt;p class="MsoNormal"&gt;
+		确认老年人登记名称错误问题
+	&lt;p class="MsoNormal"&gt;
+		确认孕产妇数据保存不上问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024-04-09 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>his-卫生院问题处理</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	大吴家住院患者医保问题处理
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	门诊医生站问题处理
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	妇保院预约入住院重复数据处理
+&lt;p class="MsoNormal"&gt;
+	财务问题处理 
+&lt;p class="MsoNormal"&gt;
+	&lt;p class="MsoNormal" style="text-indent:18pt;"&gt;
+		妇保院：妇保科问题处理
+	&lt;p class="MsoNormal"&gt;
+		大吴家药房问题处理
+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024-04-09 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>卫生院问题处理</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	大吴药库出现负数问题处理
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	门诊医生站问题处理
+&lt;p class="MsoNormal"&gt;
+	财务统计报表问题处理
+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2024-04-10 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>公卫预发布环境-版本2.0.8功能测试，数据导入后测试，签约bug验证</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	&lt;p class="MsoNormal"&gt;
+		预发布环境：
+档案迁出迁入功能测试
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	菜单默认展开功能测试
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	问题反馈验证
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	&lt;p class="MsoNormal" style="text-indent:27pt;"&gt;
+		测试环境：
+	&lt;p class="MsoNormal"&gt;
+		签约功能测试
+	&lt;p class="MsoNormal"&gt;
+		问题反馈
+	&lt;p class="MsoNormal"&gt;
+		预发布环境：
+	&lt;p class="MsoNormal"&gt;
+		脑卒中登记数据导入数据及功能测试
+	&lt;p class="MsoNormal"&gt;
+		版本v2.0.8-孕产妇管理功能测试
+	&lt;p class="MsoNormal"&gt;
+		迁入迁出功能测试
+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2024-04-10 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>卫生院问题处理</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal" style="text-indent:0pt;background:#FFFFFF;"&gt;
+	妇保院门诊医生问题处理
+&lt;p class="MsoNormal" style="text-indent:0pt;background:#FFFFFF;"&gt;
+	财务问题处理
+&lt;p class="MsoNormal"&gt;
+	检验问题处理
+&lt;p class="MsoNormal"&gt;
+	&lt;p class="MsoNormal" align="justify" style="margin-left:0pt;text-indent:18pt;text-align:justify;"&gt;
+		新村卫生院村医问题处理
+	&lt;p class="MsoNormal"&gt;
+		宋家卫生院出院结算问题处理
+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024-04-11 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>公卫系统-版本功能测试，问题确认</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal" align="justify" style="margin-left:0pt;text-align:justify;"&gt;
+	正式环境：
+&lt;p class="MsoNormal" align="justify" style="margin-left:0pt;text-align:justify;"&gt;
+	用户反馈问题确认反馈
+&lt;p class="MsoNormal" align="justify" style="margin-left:0pt;text-align:justify;"&gt;
+	公司预发环境确认反馈问题
+&lt;p class="MsoNormal" style="text-indent:0pt;background:#FFFFFF;"&gt;
+	预发布环境：
+&lt;p class="MsoNormal" style="text-indent:0pt;background:#FFFFFF;"&gt;
+	测试档案批量签约功能bug修改
+&lt;p class="MsoNormal" style="text-indent:0pt;background:#FFFFFF;"&gt;
+	测试档案管理数据更新功能
+&lt;p class="MsoNormal" style="text-indent:0pt;background:#FFFFFF;"&gt;
+	定位正式环境儿童档案缺失问题
+&lt;p class="MsoNormal" style="text-indent:0pt;background:#FFFFFF;"&gt;
+	&lt;p class="MsoNormal" align="justify" style="margin-left:0pt;text-indent:27pt;text-align:justify;"&gt;
+		测试环境：
+	&lt;p class="MsoNormal" align="justify" style="margin-left:0pt;text-align:justify;"&gt;
+		V2.0.7版本功能测试
+	&lt;p class="MsoNormal" align="justify" style="margin-left:0pt;text-align:justify;"&gt;
+		问题反馈
+	&lt;p class="MsoNormal" align="justify" style="margin-left:0pt;text-align:justify;"&gt;
+		预发布环境：
+	&lt;p class="MsoNormal" align="justify" style="margin-left:0pt;text-align:justify;"&gt;
+		高血压糖尿病数据更新功能及数据测试
+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024-04-11 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>卫生院问题处理</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	妇保院男科门诊医生问题处理
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	财务问题处理
+&lt;p class="MsoNormal"&gt;
+	检查组套问题处理  
+&lt;p class="MsoNormal"&gt;
+	&lt;p class="MsoNormal"&gt;
+		宋家卫生院门诊医生问题处理
+</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-04-07 00:00:00</t>
+          <t>2024-04-12 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>公卫系统-功能测试，问题处理</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal"&gt;
+	正式环境：
+&lt;p class="MsoNormal"&gt;
+	用户反馈问题确认反馈
+&lt;p class="MsoNormal"&gt;
+	公司预发环境确认反馈问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	预发布环境：
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	测试死亡管理功能
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	定位签约导出报错bug
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	高血压糖尿病数据更新功能及数据测试
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	&lt;p class="MsoNormal" style="text-indent:27pt;"&gt;
+		测试环境：
+	&lt;p class="MsoNormal"&gt;
+		高血压随访-症状保存失败
+	&lt;p class="MsoNormal" style="text-indent:40pt;"&gt;
+		死亡管理-身份证模糊查询功能
+	&lt;p class="MsoNormal" style="text-indent:40pt;"&gt;
+		孕产妇随访日期不会更新首次登记表的随访时间bug
+	&lt;p class="MsoNormal" style="text-indent:40pt;"&gt;
+		高糖高血压-随访引用药品后显示code的bug
+	&lt;p class="MsoNormal"&gt;
+		预发布环境：
+	&lt;p class="MsoNormal"&gt;
+		测试更改bug后预发布整体流程
+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2024-04-12 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>his系统-问题处理</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	妇保院-出院结算报错问题处理
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	手术室无法确认医嘱问题处理
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	异地上报问题处理 
+&lt;p class="MsoNormal"&gt;
+	大吴家报表问题处理
+&lt;p class="MsoNormal"&gt;
+	宋家卫生院村医问题处理
+</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2024-04-15 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>公卫系统-bug修改测试，数据更新测试</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal"&gt;
+	正式环境：
+&lt;p class="MsoNormal"&gt;
+	用户反馈问题确认反馈
+&lt;p class="MsoNormal"&gt;
+	公司预发环境确认反馈问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	测试环境：
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	糖尿病随访药品引用药品bug修改测试
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	高血压随访bug修改测试
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	高/糖转诊bug修改测试
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	&lt;p class="MsoNormal" style="text-indent:27pt;"&gt;
+		测试环境：
+	&lt;p class="MsoNormal" style="text-indent:45pt;"&gt;
+		儿童管理-月龄记录表bug修改测试 
+	&lt;p class="MsoNormal"&gt;
+		预发布环境：
+	&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+		档案死亡日期更新测试、流程测试
+	&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:36pt;background:#FFFFFF;"&gt;
+		高血压随访数据更新测试、流程测试
+	&lt;p class="MsoNormal" style="text-indent:36pt;background:#FFFFFF;"&gt;
+		糖尿病随访数据更新测试、流程测试
+	&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:36pt;background:#FFFFFF;"&gt;
+		糖尿病/高血压-状态更新测试
+	&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:36pt;background:#FFFFFF;"&gt;
+		儿童管理-数据更新测试
+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024-04-15 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>卫生院问题处理</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	妇保院-内科住院医生站确认病历问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	更改入院病历模版
+&lt;p class="MsoNormal"&gt;
+	更改病程录模版 
+&lt;p class="MsoNormal"&gt;
+	&lt;p class="MsoNormal" style="text-indent:27pt;"&gt;
+		大吴家卫生院住院医生问题处理
+	&lt;p class="MsoNormal"&gt;
+		妇保院-预约挂号会议
+	&lt;p class="MsoNormal"&gt;
+		项目会议
+</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2024-04-16 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>公卫正式环境问题确认，bug修改</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal"&gt;
+	正式环境：
+&lt;p class="MsoNormal"&gt;
+	用户反馈问题确认反馈
+&lt;p class="MsoNormal"&gt;
+	公司预发环境确认反馈问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	预发布环境：
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	确认儿童档案，导出功能-出生日期为空bug
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	确认肺结核第一次入户随访-随访医生显示的是user_name -bug
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	测试梦芝、泉山公卫修复数据问题
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	确认孕产妇随访-无法保存问题 -缓存
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	&lt;p class="MsoNormal" style="text-indent:27pt;"&gt;
+		测试环境：
+	&lt;p class="MsoNormal" style="text-indent:45pt;"&gt;
+		测试-修改高/糖随访-药品支持删除
+	&lt;p class="MsoNormal" style="text-indent:40pt;"&gt;
+		测试严重精神障碍患者随访服务记录表-如死亡-前端必填bug 
+	&lt;p class="MsoNormal"&gt;
+		预发布环境：
+	&lt;p class="MsoNormal" style="text-indent:72pt;"&gt;
+		测试梦芝、泉山公卫修复数据问题
+	&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:36pt;background:#FFFFFF;"&gt;
+		残疾人管理流程测试
+	&lt;p class="MsoNormal" style="text-indent:72pt;background:#FFFFFF;"&gt;
+		精神病管理流程测试
+	&lt;p class="MsoNormal" style="text-indent:72pt;background:#FFFFFF;"&gt;
+		冠心病数据管理流程测试
+	&lt;p class="MsoNormal" style="text-indent:72pt;background:#FFFFFF;"&gt;
+		老年人专项管理流程测试
+	&lt;p class="MsoNormal" style="text-indent:72pt;background:#FFFFFF;"&gt;
+		测试2.0.9流程
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2024-04-16 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>云his功能测试，问题处理</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	妇保院-药库代码重复问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	收费处问题处理
+&lt;p class="MsoNormal"&gt;
+	大吴家住院病历问题处理 
+&lt;p class="MsoNormal"&gt;
+	&lt;p class="p" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+		1、修改发药汇总单、退药汇总单模板功能测试
+	&lt;p class="p" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+		2、修改发药明细单、退药明细单模板功能测试
+	&lt;p class="p" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+		3问题反馈及回归
+	&lt;p class="MsoNormal"&gt;
+		妇保院-儿科科室问题处理
+	&lt;p class="MsoNormal"&gt;
+		妇科病案首页住院次数错误问题处理
+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024-04-17 18:08:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>公卫版本发布，问题确认修改，数据导入测试</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;p class="MsoNormal"&gt;
+	正式环境：
+&lt;p class="MsoNormal"&gt;
+	用户反馈问题确认反馈
+&lt;p class="MsoNormal"&gt;
+	公司预发环境确认反馈问题
+&lt;p class="MsoNormal" style="margin-left:0pt;text-indent:0pt;background:#FFFFFF;"&gt;
+	预发布环境：
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	测试公卫数据更新流程
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	确认正式环境精神病随访问题
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	确认高血压随访非必填取消问题
+&lt;p class="MsoNormal" style="text-indent:36pt;"&gt;
+	&lt;p class="MsoNormal" style="text-indent:27pt;"&gt;
+		测试环境：
+	&lt;p class="MsoNormal" style="text-indent:40pt;"&gt;
+		测试严重精神障碍患者随访问题
+	&lt;p class="MsoNormal" style="text-indent:40pt;"&gt;
+		测试高血压随访-查询报错问题 
+	&lt;p class="MsoNormal"&gt;
+		预发布环境：
+	&lt;p class="MsoNormal"&gt;
+		确认正式环境反应问题
+	&lt;p class="MsoNormal" style="text-indent:72pt;"&gt;
+		测试肺结核数据导入流程 
+</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-04-17 18:10:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>郭浩杰</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>区域HIS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>现场问题处理 、云his3.3.5版本测试</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1.玲珑卫生院读卡器读取身份证失败、电子病历修改、护理收费项目没办法开立临时、村医开药看不到、检验打印报告问题、收费组套维护、药房库存没有待发药但是库存显示有待发问题处理
 2.大秦家卫生院收费报错后在地纬生成了数据问题处理
@@ -1160,78 +1701,78 @@
 5.云his3.3.6版本功能测试，已提测6个，已完成1个，未完成5个</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>2024-04-02 00:00:00</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>郭浩杰</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>区域HIS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>云his3.3.6版本功能测试 现场负责医院问题处理</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1.玲珑卫生院统计问题bug以及操作类的问题处理，详情见招远云his在线问题跟踪表
 2.【腾讯文档】招远云HIS上线问题跟踪表https://docs.qq.com/sheet/DWm5LcHN1ck5YSmxB
 3.云his3.3.4紧急版本bug测试，已提测10个，已完成10个，已发邮件</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>2024-04-03 00:00:00</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>郭浩杰</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>区域HIS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>云his3.3.6版本功能测试、现场负责医院问题处理</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1.玲珑卫生院报表显示错误、检验报告看不到、传染病上报报错，药房库存有但是门诊开不出问题处理
 2.云his3.3.6版本功能测试，已提测6个，已完成1个，未完成4个
@@ -1240,39 +1781,39 @@
 5.云his问题记录跟踪表bug处理</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>2024-04-07 00:00:00</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>郭浩杰</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>区域HIS</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>.云his3.3.6版本功能测试， 现场负责医院问题处理</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1.玲珑卫生院发药类型维护，需求问题整理
 2.梦芝卫生院新培训表签字，已提交给宋总
@@ -1282,39 +1823,39 @@
 4.云his在线问题跟踪表问题处理</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>2024-04-08 00:00:00</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>郭浩杰</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>区域HIS</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>云his3.3.6版本功能测试 Pim异地报销功能测试</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1.梦芝卫生院村医报销结算问题排查，护理文书写完后医生查看不到问题处理
 2.玲珑卫生院收费结算报错、大慢病糖尿病诊断填写问题处理
@@ -1324,39 +1865,39 @@
 3.辛庄卫生院药库出库看不到药品问题处理</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>2024-04-09 00:00:00</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>郭浩杰</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>区域HIS</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>云his3.3.6版本功能bug测试 现场负责医院问题处理</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1.云his3.3.6版本功能测试，版本bug跟进
 2.玲珑卫生院电子病历显示错误修改
@@ -1366,39 +1907,39 @@
 4.本天下午下班卡因工作原因忘记打卡，需要月底进行补卡</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>2024-04-10 00:00:00</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>郭浩杰</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>区域HIS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>云his3.3.6版本遗留bug跟进 现场负责医院问题处理</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1.玲珑卫生院处方打印皮试错误、药品开不出来、病区一览报错、手术费用计费处理
 2.妇幼pim异地医保测试，已提测4个，已完成0，现在异地读卡报错
@@ -1406,39 +1947,39 @@
 2.玲珑卫生院电子健康卡读卡报错、药房库存有负数、病案首页手术看不到、村医库存问题处理</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>2024-04-11 00:00:00</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>郭浩杰</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>区域HIS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>现场负责医院问处理 云his紧急bug测试</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1.玲珑卫生院村医报销报错
 2.道头卫生院病案首页手术显示不出来、症候开了以后没有显示问题处理
@@ -1447,12 +1988,12 @@
 2.梦芝卫生院医保结算单上报问题处理</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>2024-04-12 00:00:00</t>
         </is>

--- a/instance/zyjk/zentao/zentao_daily.xlsx
+++ b/instance/zyjk/zentao/zentao_daily.xlsx
@@ -413,14 +413,1583 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>项目</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>工时</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>完成日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>老年人体检v2.6测试</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   查体问诊数据提取上一次查体记录排序测试 </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-05-06 17:56:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>公卫v2.2测试</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、已死亡信息在各类管理卡界面不查询测试    2、慢病管理卡修改状态时处理测试 </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-05-07 17:56:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>公卫v2.2测试</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、已死亡信息在各类管理卡界面不查询测试    2、慢病管理卡修改状态时处理测试 </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:59:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>公卫v2.2测试</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、已死亡信息在各类管理卡界面不查询测试    2、三高患者管理bug验证    3、老年人体检反馈问题跟进 </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-05-09 17:55:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>公卫v2.2测试</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、导出功能性能判断测试    2、预发布流程测试 </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-05-10 17:58:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>预发布环境测试、需求评审</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、v2.3需求评审    2、&lt;span style="font-family:Arial;"&gt;预发布流程测试 </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-05-11 17:56:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>公卫v2.2测试用例编写</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、反馈问题跟进    2、v2.2测试用例编写 </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-05-13 17:57:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 公卫v2.1测试用例编写</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、反馈问题跟进    2、v2.1测试用例编写 </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-05-14 17:58:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>公卫v2.1测试用例编写</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、反馈问题跟进    2、v2.1测试用例编写 </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-05-15 17:57:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>公卫v2.0.9测试用例编写</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、反馈问题跟进    2、v2.0.9测试用例编写 </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-05-16 17:55:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>公卫v2.0.8测试用例编写</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、反馈问题跟进    2、v2.0.8测试用例编写 </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-05-17 17:55:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>公卫v2.3测试</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、界面增加现住址查询条件测试    2、儿童随访界面测试    3、孕产妇随访界面测试 </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-05-20 17:58:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>重点人群V1.10.4测试</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、“随访服务”功能中的居民列表增加排序功能测试 </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-05-21 17:56:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>公卫v2.3测试</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、导出增加居委会和管理机构测试 </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-05-21 17:57:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>公卫v2.3测试、老年人体检评审</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、老年人体检v2.7评审    2、首页指标优化测试 </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-05-22 17:57:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 公卫v2.3测试</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、首页指标优化测试    2、相关表单视觉优化测试 </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-05-23 17:57:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>公卫v2.3测试</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、相关表单视觉优化测试    2、预发布流程测试 </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-05-24 17:56:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>需求查看</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、老年人v2.7需求查看    2、公卫v2.4需求查看 </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:57:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 标准v1.10测试</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、&lt;span style="color:#000000;background-color:#FFFFFF;font-family:Verdana;"&gt;添加定时任务，按照居民签约日期批量预评估测试  </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:57:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>公卫v2.0.5测试用例编写</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、v2.0.5测试用例编写  2、反馈问题跟进</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-05-28 17:56:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>反馈问题跟进</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>反馈问题跟进</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-05-28 17:56:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>公卫v2.0.4.2-v2.0.4.3测试用例编写</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、v2.0.4.2-v2.0.4.3测试用例编写    2、&lt;span style="font-family:Arial;"&gt;反馈问题跟进 </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024-05-29 17:57:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>郭斐</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>v2.3测试用例编写</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   1、v2.3测试用例编写    2、反馈问题跟进 </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024-05-30 17:55:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5月6日工作日志</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、手机端工作计划测试、新增计划表单测试  2、数据验证  3、前端交互评审会  4、验证交互问题、禅道bug</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024-05-06 17:54:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5月7日工作日志</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、测试手机端工作计划详情页面  2、禅道bug回归验证  3、手机端数据权限测试  4、关联拜访、协防、会议数据测试  5、高血压项目需求评审  &lt;br /&gt;</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024-05-07 17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5月8日工作日志</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、手机端工作计划状态bug回归验证  2、手机机型兼容性测试  3、关联多条拜访、协防状态场景验证  4、数据验证</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024-05-08 17:49:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5月9日工作日志</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、手机端创建拜访/协访增加非工作日的选择，区分拜访性质测试，导出功能验证  2、增加客户管理地址信息存储测试、2端联合测试  3、手机端工作计划bug回归验证  4、社区健康项目需求评审</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024-05-09 17:51:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5月10日工作日志</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、pc端工作计划模块测试，禅道bug提交与验证  2、手机端工作计划拜访、会议、协防关联数据权限问题测试  3、手机端拜访观念测试，bug验证  4、pc工作计划模块新加需求测试，问题沟通与确认  5、客户管理模块bug回归验证</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024-05-10 17:50:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5月11日工作日志</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、增加指标基础设置、指标权重占比设置、定位距离设置、临时拜访设置  2、配合产品验收工作计划功能  3、增加临时协访设置  4、禅道bug验证与提交</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024-05-11 18:05:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5月13日工作日志</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、拜访列表、详情  2、协访列表、详情  3、客户地址信息导入/导出  4、升级定位匹配查询功能；支持家访、路访地址匹配；  5、禅道bug验证与提交</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024-05-13 18:19:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5月14日工作日志</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、测试统计排名功能、数据验证  2、工作计划关联需求调整测试  3、禅道bug回归验证</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024-05-14 17:57:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5月14日工作日志</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  &lt;div style="color:#000000;"&gt;  	1、修改访视次数和访视日期     &lt;div style="color:#000000;"&gt;  	2、&lt;span style="font-size:10.5pt;font-family:'微软雅黑';"&gt;完整性的显示需要显示在入组访视4上     &lt;div style="color:#000000;"&gt;  	&lt;span style="font-size:10.5pt;font-family:'微软雅黑';"&gt;3、&lt;span style="font-size:10.5pt;font-family:'微软雅黑';"&gt;增加时间访视窗     &lt;div style="color:#000000;"&gt;  	&lt;span style="font-size:10.5pt;font-family:'微软雅黑';"&gt;4、随访模版根据随访版本号展示内容     &lt;div style="color:#000000;"&gt;  	&lt;span style="font-size:10.5pt;font-family:'微软雅黑';"&gt;5、&lt;span style="font-size:10.5pt;font-family:'微软雅黑';"&gt;随访记录中体格检查项目不自动带入     &lt;br /&gt;</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2024-05-14 18:00:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5月15日工作日志</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、拜访统计报表双A完成率、高潜完成率、统计分数计算  2、统计排名测试  3、协防家访、路访定位测试  4、不同层级岗位的人登录后查看的统计数据权限区分；  5、调整部分字段名称、登录增加愿景描述显示；</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2024-05-15 17:52:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5月16日工作日志</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、高潜覆盖率、双a覆盖率逻辑测试，数据验证  2、禅道bug回归验证  3、客户路访地址维护逻辑测试</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2024-05-16 17:51:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5月17日工作日志</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1、配合产品验收测试&lt;br /&gt;2、客户地址导入逻辑测试&lt;br /&gt;3、线上版本数据无法查看问题定位与测试&lt;br /&gt;4、工作计划按钮权限测试&lt;br /&gt;</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2024-05-17 17:54:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5月20日工作日志</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、配合产品验收测试  2、拜访定位逻辑修改测试  3、发版sql验证  4、拜访数据测试，问题沟通。</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2024-05-20 17:52:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5月21日工作日志</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、v3.50版本发布，环境配置  2、线上功能验证  3、数据验证  4、工作计划需求新增功能测试</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2024-05-21 18:02:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>区域平台需求评审会议</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>区域平台需求评审</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2024-05-21 18:04:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5月22日工作日志</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、线上工作计划关联数据问题验证，脏数据原因，未复现  2、线上审批问题验证，岗位空岗导致  &lt;br /&gt;</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2024-05-22 17:50:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5月22日工作日志</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、公卫需求评审  2、需求梳理</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2024-05-22 17:54:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>5月23日工作日志</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、区域平台2.2版本测试  2、公卫需求评审  3、1.2.1.注册服务、1.2.2.标准管理、1.2.3.健康档案存储服务、1.2.4.数据交换及共享服务</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2024-05-23 17:57:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>5月24日工作日志</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、区域平台v2.2需求测试、bug提交与验证  2、梳理2.2需求文档、项目功能熟悉</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2024-05-24 17:50:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5月24日工作日志</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、高血压对接区域平台验收问题会议  2、高血压小程序、pc端功能梳理</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2024-05-24 17:51:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>5月27日工作日志</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、体检数据上传数据逻辑验证  2、需求文档梳理  3、老年人体检数据表结构梳理</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:52:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5月27日工作日志</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1、机构别名、产品别名数据整理</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:53:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5月28日工作日志</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、潜力排名逻辑视频录制  2、高潜、双A标签转换视频录制  3、例会反应问题排查，无bug，未审批导致  4、开发数据新增需求梳理</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2024-05-28 18:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5月29日工作日志</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1.区域平台系统测试  2、功能梳理与验证  3、区域平台测试用例梳理</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2024-05-29 17:39:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5月30日工作日志</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、erp3.5.1手机端增加开发管理新增需求测试  2、数据验证，bug提交  3、pc端结合测试、权限测试、数据落岗测试  &lt;br /&gt;</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2024-05-30 17:50:13</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/instance/zyjk/zentao/zentao_daily.xlsx
+++ b/instance/zyjk/zentao/zentao_daily.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,22 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7月16号工作日志-</t>
+          <t>7月22号工作日志</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1、宝山健康管理中心系统评估页面筛选报错问题跟进    2、测试环境无法评估问题跟进 </t>
+          <t xml:space="preserve">   1、社区健康规则自动化日常维护-进行中    2、v1.11评估因素取值需求查看（检验检查）-进行中    3、测试数据准备-进行中    4、定时任务反馈问题跟进，已告知实施同事解决方法-已完成    5、首页显示问题跟进，测试环境未复现，非bug-已完成 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-07-16 17:56:35</t>
+          <t>2024-07-22 17:58:59</t>
         </is>
       </c>
     </row>
@@ -493,34 +493,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>区域公共卫生管理系统</t>
+          <t>社区健康管理中心</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7月16号工作日志</t>
+          <t>7月23号工作日志</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">   1、接诊信息界面查询问题测试    2、预发布环境测试 </t>
+          <t xml:space="preserve">   1、社区健康规则自动化日常维护-进行中    2、v1.11评估因素取值需求查看-进行中    3、v1.11疾病评估规则（已患和高风险）需求查看-进行中    4、测试数据准备-进行中    5、宝山健康管理中心家医账号首页显示数据缺失反馈问题跟进-测试环境未复现，非bug，在禅道中备注了结果 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-07-16 17:57:06</t>
+          <t>2024-07-23 17:58:31</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>刘斌龙</t>
+          <t>郭斐</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -530,12 +530,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7月16日工作日志-</t>
+          <t>7月24号工作日志</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.排查报告的检验数据在页面显示不正确的问题  2.查看2.11新增规则  &lt;br /&gt;</t>
+          <t xml:space="preserve">   1、社区健康规则自动化日常维护-进行中    2、v1.11评估因素取值需求查看-进行中    3、v1.11疾病评估规则（已患和高风险）需求查看-进行中    4、测试数据准备-进行中    5、v1.11需求评审-已完成 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -545,14 +545,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-07-16 17:58:51</t>
+          <t>2024-07-24 17:58:14</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>刘斌龙</t>
+          <t>郭斐</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,12 +562,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7月16日工作日志-</t>
+          <t>7月24号工作日志-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1.公卫报表需求查看，为自动化做准备  2.排查居民查询提示无id的问题</t>
+          <t xml:space="preserve">     	反馈问题跟进     1、孕妇档案三色管理，42天已经结案的还是红色-非BUG，已备注   2、修改第一次孕妇档案、产后访视随访医生签名无数据。-非BUG，已备注    3、孕妇档案孕周比如37周保存不上，必须要+上个数字1或者是0才能保存上。-非BUG，已备注    4、有时候查找孕妇档案，输入名字查找不了，必须输入身份证号码，有时候输入姓名和身份证号码都查找不出来。-非BUG，已备注    5、42天已经结案的孕产妇，直接转为普通人群。-非BUG，已备注 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -577,103 +577,391 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-07-16 18:00:53</t>
+          <t>2024-07-24 17:58:56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>舒阳阳</t>
+          <t>郭斐</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>智赢CRM</t>
+          <t>社区健康管理中心</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7月16日工作日志</t>
+          <t>7月25号工作日志</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1、3.6版本发布上线  2、线上潜力标签问题验证与定位  3、潜力排名问题排查</t>
+          <t xml:space="preserve">   1、社区健康规则自动化日常维护-进行中    2、v1.11评估因素取值需求查看-进行中    3、v1.11健康干预规则库（已患疾病））需求查看-进行中    4、测试数据准备-进行中    5、宝山健康管理中心系统评估页面筛选报错问题跟进-测试环境未复现 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-07-16 14:03:03</t>
+          <t>2024-07-25 17:56:15</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>陈晓东</t>
+          <t>舒阳阳</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>招远妇幼保健系统项目</t>
+          <t>智赢CRM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7.16工作日志</t>
+          <t>7月22日工作日志</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1版本发布  2医生排班功能测试  3进销存功能测试  4’妇保院需求评审</t>
+          <t xml:space="preserve">  1、梳理根据拜访目的为销售的类型进行客户分类，计算达成分数等逻辑；  2、梳理根据拜访目的为市场活动类型进行客户分类，计算达成分数等逻辑；  3、梳理根据拜访目的为开发类型进行客户分类，计算达成分数等逻辑；  4、梳理按照客户维度进行拜访目的的测算统计，区分拜访目的及时间段周期等逻辑；  5、梳理根据拜访目的的变更需调整部分涉及到的列表及详情的展示逻辑；</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-07-16 18:00:07</t>
+          <t>2024-07-22 17:49:17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>社区健康管理中心</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7月23日工作日志</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、离职同事工作交接、测试用例、业务流程、功能录屏等  2、社区健康规则梳理；  3、社区健康需求梳理。测试点整理；  4、社区健康首页数据配置线上问题排查，实施同事数据未清洗导致；</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-07-23 17:59:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>区域公共卫生管理系统</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7月24日工作日志</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、公卫问题跟踪表17个反馈bug问题，进行验证，排查，反馈测试结果；  2、数据验证、问题沟通，数据排查等  3、进度表中已描述原因；</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-07-24 17:47:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>社区健康管理中心</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7月24日工作日志</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、社区健康孕产妇儿童规则评审  2、需求问题沟通与讨论；  3、需求评估报告评审；  4、需求梳理；4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-07-24 17:51:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>舒阳阳</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>智赢CRM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7月25日工作日志</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1、测试纯销管理模块，数据导入逻辑测试，列表数据测试；  2、纯销数据与库存管理结合测试，数据验证；  3、纯销管理模块查询测试，导出功能测试；  4、协防拜访导出优化测试；</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-07-25 17:55:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>陈晓东</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>区域公共卫生管理系统</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7.16工作日志</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>&lt;p style="color:#000000;"&gt;   处理公卫bug  &lt;span style="background-color:#EFEFEF;"&gt;1&lt;span style="color:#3C4353;"&gt;卫生室账户就诊信息查询出的数据是整个卫生院的数据&lt;div style="color:#000000;"&gt;  2bug-&lt;span style="background-color:#EFEFEF;color:#3C4353;"&gt;老年人专项数据与个人健康档案人群分类数据不同 &lt;div style="color:#000000;"&gt;  &lt;span style="background-color:#EFEFEF;color:#3C4353;"&gt;3bug-&lt;span style="color:#3C4353;"&gt;&lt;span class="text" style="font-weight:700;color:#3C4353;"&gt;老年人批量登记后，在档案导航中不显示老年人专项，但在老年人专项管理中可以查到 &lt;p style="color:#000000;"&gt;  &lt;span style="background-color:#EFEFEF;color:#3C4353;"&gt;4bug-老年人专项登记后不显示出生日期&lt;p style="color:#000000;"&gt;  &lt;span style="background-color:#EFEFEF;color:#3C4353;"&gt;&lt;br /&gt;</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7.22工作日志</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1入院医保登记-出院结算  2病案首页数据维护，上报  3日志查看，比对  4门诊-检验医技-发送-结算-检验页面查询-确费-取消-退费  5住院医技-发送-确认-医生作废-确费-取消确费-费用查询</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-07-22 18:03:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7.22工作日志</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1妇幼正式环境-会诊模版维护  2测试住院病历-西药医嘱引用  3门诊-处方-开立-成组-取消-发送</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2024-07-16 18:01:19</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-07-22 18:05:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7.23工作日志</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1护士病房-医嘱查询-能查看医技报告  2下达医嘱时获取药品剂型  3下达处方时获取药品剂型  4门诊患者列表查询  5病例中增加西药医嘱引用  6多点登录功能  7门诊处方成组取消功能  8妇幼需求评审</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-07-23 18:05:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7.24工作日志</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1测试病区-医技医嘱发送-确认-状态比较  2确认病区医技作废状态标志-成组及单医嘱  3测试-病区发药查询-需求  4测试病区退药查询-需求  5 测试-住院病程录-增加可以设置当前打印进度功能  6测试-解决住院医保预结算上传费用慢时，用户点击取消上传时，此时医保上传正好完成回&lt;br /&gt;调卡住的问题：&lt;br /&gt;1.取消上传时，在redis中使用预结算ID记录取消标记，mbf每轮上传都读取redis标&lt;br /&gt;记，如果取消则不再上传&lt;br /&gt;2.mbf上传完毕后，在inp中判定当前预结算上传状态是否时被取消，如果取消不再修&lt;br /&gt;改状态</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-07-24 17:57:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>区域HIS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7.25工作日志</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1检验医技状态更改-配置-发送及作废单个检验条目，不作废医嘱，全部作废后作废医嘱  2优化自费患者个账预结算前，如果没有进行过刷卡，自动身份证读卡&lt;br /&gt; 1.没有身份证/医保读卡失败:患者未进行医保读卡，请读卡后重试&lt;br /&gt; 2.增加全院配置:“市内个账预结算前是否自动读卡”默认1，是;目前发现预结算返回余额也可能有问题，市内个账预结算前自动读一下卡(不管是否有刷卡信息)"068503"]  3回归病区退药查询无数据问题  4出院结算-医保撤销预结算后再重新上传不影响正式结算功能</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-07-25 18:02:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>陈晓东</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>招远妇幼保健系统项目</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7.25工作日志</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1护士站消息增加床号&lt;br /&gt;2消息增加跳转和刷新功能&lt;br /&gt;  3护士工作站的消息提醒，根据登录用户护士表中所属病区来判断数据源，护士所在的病区医未确认的数据，显示在消息界面中:非护士所在病区医嘱未确认数据，不显示在消息界面中  4批量瓶贴打印菜单-功能需求查看   医嘱-数据维护，打印预览测试  &lt;br /&gt;</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-07-25 18:04:52</t>
         </is>
       </c>
     </row>
